--- a/web-site/uploads/application2.xlsx
+++ b/web-site/uploads/application2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B143618-1CB2-426D-B786-8F2064B6E5DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="2"/>
+    <workbookView xWindow="-24030" yWindow="3855" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="параметры программ" sheetId="1" r:id="rId1"/>
@@ -14,17 +15,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'параметры программ'!$B$1:$N$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="J23" authorId="0" shapeId="0">
+    <comment ref="J22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -50,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L31" authorId="0" shapeId="0">
+    <comment ref="L30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -81,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="222">
   <si>
     <t xml:space="preserve"> Программа повышения квалификации "Центровка и контроль загрузки воздушных судов. Базовый курс"</t>
   </si>
@@ -143,9 +144,6 @@
     <t>Программа повышения квалификации "Организация и контроль противообледенительной защиты воздушных судов (категория по SAE AS6286А DI-L30B)"</t>
   </si>
   <si>
-    <t>Программа повышения квалификации «Спасание и борьба с пожаром на воздушных судах и объектах аэропорта»</t>
-  </si>
-  <si>
     <t>Программа начальной подготовки водителей спецтранспорта без права подъезда к воздушному в контролируемой зоне аэродрома «Пулково»</t>
   </si>
   <si>
@@ -282,9 +280,6 @@
   </si>
   <si>
     <t>Может проводить занятия по темам</t>
-  </si>
-  <si>
-    <t>Водители; ПОЗ ВС</t>
   </si>
   <si>
     <t>Аварийно-спасательное обеспечение полетов</t>
@@ -362,28 +357,10 @@
     <t>с партами, интерактивная доска</t>
   </si>
   <si>
-    <t>требуется интерактивная доска</t>
-  </si>
-  <si>
-    <t>желательно все дни в одной и той же аудитории</t>
-  </si>
-  <si>
-    <t>желательно все дни в одной и той же аудитории, может проводиться совместно с программой №4</t>
-  </si>
-  <si>
     <t>кроме Подготовка преподавателей АУЦ</t>
   </si>
   <si>
     <t>на практические занятия необходима аудитория БАТО,213</t>
-  </si>
-  <si>
-    <t>желателен  414б</t>
-  </si>
-  <si>
-    <t>желателен 414б</t>
-  </si>
-  <si>
-    <t>необходима аудитория  без парт: 414б-1 или 416аб</t>
   </si>
   <si>
     <t>аудитория БАТО,213</t>
@@ -393,9 +370,6 @@
 Центровка и контроль загрузки</t>
   </si>
   <si>
-    <t>аудитория 105,106,107</t>
-  </si>
-  <si>
     <t>График работы</t>
   </si>
   <si>
@@ -620,9 +594,6 @@
     <t>сменный</t>
   </si>
   <si>
-    <t>пятидневный</t>
-  </si>
-  <si>
     <t>3 смена</t>
   </si>
   <si>
@@ -633,9 +604,6 @@
   </si>
   <si>
     <t>1/2 смена</t>
-  </si>
-  <si>
-    <t>индивидуальный</t>
   </si>
   <si>
     <t>Табельный номер преподавателя</t>
@@ -769,13 +737,31 @@
   <si>
     <t>может читать не более 2 дней подряд,
 затем необходим выходной</t>
+  </si>
+  <si>
+    <t>Водители; Противообледенительная защита ВС</t>
+  </si>
+  <si>
+    <t>интерактивная доска</t>
+  </si>
+  <si>
+    <t>стулья без парт</t>
+  </si>
+  <si>
+    <t>105, 106, 107</t>
+  </si>
+  <si>
+    <t>5/2</t>
+  </si>
+  <si>
+    <t>2/1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="29" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1001,6 +987,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1399,7 +1391,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="22" fillId="0" borderId="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1415,9 +1407,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1448,6 +1437,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1466,12 +1464,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1492,7 +1485,7 @@
     <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Normal_Sheet1" xfId="44"/>
+    <cellStyle name="Normal_Sheet1" xfId="44" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
     <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -1511,11 +1504,11 @@
     <cellStyle name="Название" xfId="2" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Нейтральный" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="42"/>
-    <cellStyle name="Обычный_Прей-т АВС пересмотр двуязыче" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Обычный_Прей-т АВС пересмотр двуязыче" xfId="1" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
     <cellStyle name="Плохой" xfId="8" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Примечание 2" xfId="43"/>
+    <cellStyle name="Примечание 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
     <cellStyle name="Связанная ячейка" xfId="13" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="7" builtinId="26" customBuiltin="1"/>
@@ -1666,6 +1659,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1701,6 +1711,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1876,12 +1903,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1896,70 +1923,70 @@
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="B1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>85</v>
-      </c>
       <c r="K1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="M1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>72</v>
+      <c r="B2" s="29" t="s">
+        <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="E2" s="4">
         <v>80</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2" s="4">
         <v>10</v>
@@ -1985,24 +2012,24 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="E3" s="4">
         <v>64</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I3" s="4">
         <v>8</v>
@@ -2028,26 +2055,26 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>80</v>
+      <c r="B4" s="25" t="s">
+        <v>78</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="E4" s="4">
         <v>40</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I4" s="4">
         <v>5</v>
@@ -2073,24 +2100,24 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="E5" s="4">
         <v>40</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I5" s="4">
         <v>5</v>
@@ -2116,26 +2143,26 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>76</v>
+      <c r="B6" s="29" t="s">
+        <v>74</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>99</v>
+        <v>218</v>
       </c>
       <c r="E6" s="4">
         <v>24</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I6" s="4">
         <v>3</v>
@@ -2161,24 +2188,24 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="24"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>99</v>
+        <v>218</v>
       </c>
       <c r="E7" s="4">
         <v>16</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" s="4">
         <v>2</v>
@@ -2204,26 +2231,26 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>35</v>
+      <c r="B8" s="29" t="s">
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E8" s="4">
         <v>24</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" s="4">
         <v>3</v>
@@ -2249,24 +2276,24 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E9" s="4">
         <v>16</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I9" s="4">
         <v>2</v>
@@ -2292,24 +2319,24 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E10" s="4">
         <v>16</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" s="4">
         <v>2</v>
@@ -2335,21 +2362,21 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="23"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E11" s="4">
         <v>16</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H11" s="4">
         <v>8</v>
@@ -2378,21 +2405,21 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="23"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E12" s="4">
         <v>24</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H12" s="4">
         <v>8</v>
@@ -2421,21 +2448,21 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="24"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E13" s="4">
         <v>16</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H13" s="4">
         <v>8</v>
@@ -2464,26 +2491,26 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>79</v>
+      <c r="B14" s="25" t="s">
+        <v>77</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E14" s="4">
         <v>16</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="4">
         <v>2</v>
@@ -2509,24 +2536,24 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="24"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E15" s="4">
         <v>32</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="H15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I15" s="4">
         <v>4</v>
@@ -2552,14 +2579,14 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>74</v>
+      <c r="B16" s="25" t="s">
+        <v>72</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="E16" s="4">
         <v>72</v>
@@ -2589,7 +2616,7 @@
       <c r="M16" s="4">
         <v>4</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="6">
         <v>7</v>
       </c>
     </row>
@@ -2597,12 +2624,12 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="22"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="E17" s="4">
         <v>32</v>
@@ -2640,14 +2667,14 @@
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>78</v>
+      <c r="B18" s="25" t="s">
+        <v>76</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E18" s="4">
         <v>16</v>
@@ -2685,12 +2712,12 @@
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="23"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E19" s="4">
         <v>16</v>
@@ -2714,7 +2741,7 @@
         <v>54</v>
       </c>
       <c r="L19" s="4">
-        <f t="shared" ref="L19:L30" si="1">J19*15-K19</f>
+        <f t="shared" ref="L19:L29" si="1">J19*15-K19</f>
         <v>21</v>
       </c>
       <c r="M19" s="4">
@@ -2728,12 +2755,12 @@
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="23"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E20" s="4">
         <v>16</v>
@@ -2767,16 +2794,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="24"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E21" s="4">
         <v>16</v>
@@ -2810,306 +2837,310 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>36</v>
+      </c>
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="E22" s="4">
-        <v>36</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="F22" s="5">
+        <v>7</v>
+      </c>
+      <c r="G22" s="4">
+        <v>24</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
+      </c>
       <c r="I22" s="4">
-        <v>3</v>
-      </c>
-      <c r="J22" s="4">
-        <v>0</v>
-      </c>
-      <c r="K22" s="4">
-        <v>0</v>
-      </c>
-      <c r="L22" s="12">
+        <v>1</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M22" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N22" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>37</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B23" s="27"/>
       <c r="C23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="4">
-        <v>33</v>
-      </c>
-      <c r="F23" s="5">
-        <v>7</v>
-      </c>
-      <c r="G23" s="4">
+        <v>92</v>
+      </c>
+      <c r="E23" s="6">
+        <v>27</v>
+      </c>
+      <c r="F23" s="6">
+        <v>1</v>
+      </c>
+      <c r="G23" s="6">
         <v>24</v>
       </c>
-      <c r="H23" s="4">
-        <v>0</v>
-      </c>
-      <c r="I23" s="4">
+      <c r="H23" s="6">
+        <v>2</v>
+      </c>
+      <c r="I23" s="6">
         <v>1</v>
       </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="12">
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M23" s="4">
-        <v>2</v>
-      </c>
-      <c r="N23" s="4">
+      <c r="M23" s="6">
+        <v>2</v>
+      </c>
+      <c r="N23" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="23"/>
+        <v>24</v>
+      </c>
+      <c r="B24" s="27"/>
       <c r="C24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" s="7">
-        <v>27</v>
-      </c>
-      <c r="F24" s="7">
-        <v>1</v>
-      </c>
-      <c r="G24" s="7">
-        <v>24</v>
-      </c>
-      <c r="H24" s="7">
-        <v>2</v>
-      </c>
-      <c r="I24" s="7">
-        <v>1</v>
-      </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="12">
+        <v>92</v>
+      </c>
+      <c r="E24" s="4">
+        <v>74</v>
+      </c>
+      <c r="F24" s="5">
+        <v>8</v>
+      </c>
+      <c r="G24" s="4">
+        <v>64</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>2</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M24" s="7">
-        <v>2</v>
-      </c>
-      <c r="N24" s="7">
+      <c r="M24" s="4">
+        <v>2</v>
+      </c>
+      <c r="N24" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="23"/>
+        <v>25</v>
+      </c>
+      <c r="B25" s="27"/>
       <c r="C25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" s="4">
-        <v>74</v>
-      </c>
-      <c r="F25" s="5">
-        <v>8</v>
-      </c>
-      <c r="G25" s="4">
+        <v>92</v>
+      </c>
+      <c r="E25" s="6">
+        <v>67</v>
+      </c>
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
+      <c r="G25" s="6">
         <v>64</v>
       </c>
-      <c r="H25" s="4">
-        <v>0</v>
-      </c>
-      <c r="I25" s="4">
-        <v>2</v>
-      </c>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="12">
+      <c r="H25" s="6">
+        <v>2</v>
+      </c>
+      <c r="I25" s="6">
+        <v>1</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M25" s="4">
-        <v>2</v>
-      </c>
-      <c r="N25" s="4">
+      <c r="M25" s="6">
+        <v>2</v>
+      </c>
+      <c r="N25" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="23"/>
+        <v>26</v>
+      </c>
+      <c r="B26" s="27"/>
       <c r="C26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E26" s="7">
-        <v>67</v>
-      </c>
-      <c r="F26" s="7">
-        <v>1</v>
-      </c>
-      <c r="G26" s="7">
+        <v>92</v>
+      </c>
+      <c r="E26" s="4">
+        <v>74</v>
+      </c>
+      <c r="F26" s="5">
+        <v>8</v>
+      </c>
+      <c r="G26" s="4">
         <v>64</v>
       </c>
-      <c r="H26" s="7">
-        <v>2</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1</v>
-      </c>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="12">
+      <c r="H26" s="4">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
+        <v>2</v>
+      </c>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M26" s="7">
-        <v>2</v>
-      </c>
-      <c r="N26" s="7">
+      <c r="M26" s="4">
+        <v>2</v>
+      </c>
+      <c r="N26" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="23"/>
+        <v>27</v>
+      </c>
+      <c r="B27" s="27"/>
       <c r="C27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E27" s="4">
-        <v>74</v>
-      </c>
-      <c r="F27" s="5">
-        <v>8</v>
-      </c>
-      <c r="G27" s="4">
+        <v>92</v>
+      </c>
+      <c r="E27" s="6">
+        <v>67</v>
+      </c>
+      <c r="F27" s="6">
+        <v>1</v>
+      </c>
+      <c r="G27" s="6">
         <v>64</v>
       </c>
-      <c r="H27" s="4">
-        <v>0</v>
-      </c>
-      <c r="I27" s="4">
-        <v>2</v>
-      </c>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="12">
+      <c r="H27" s="6">
+        <v>2</v>
+      </c>
+      <c r="I27" s="6">
+        <v>1</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M27" s="4">
-        <v>2</v>
-      </c>
-      <c r="N27" s="4">
+      <c r="M27" s="6">
+        <v>2</v>
+      </c>
+      <c r="N27" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="8" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="23"/>
+        <v>28</v>
+      </c>
+      <c r="B28" s="27"/>
       <c r="C28" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28" s="7">
-        <v>67</v>
-      </c>
-      <c r="F28" s="7">
+        <v>92</v>
+      </c>
+      <c r="E28" s="4">
+        <v>29.5</v>
+      </c>
+      <c r="F28" s="4">
+        <v>4</v>
+      </c>
+      <c r="G28" s="4">
+        <v>25.5</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4">
         <v>1</v>
       </c>
-      <c r="G28" s="7">
-        <v>64</v>
-      </c>
-      <c r="H28" s="7">
-        <v>2</v>
-      </c>
-      <c r="I28" s="7">
-        <v>1</v>
-      </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="12">
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M28" s="7">
-        <v>2</v>
-      </c>
-      <c r="N28" s="7">
+      <c r="M28" s="4">
+        <v>2</v>
+      </c>
+      <c r="N28" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="23"/>
+        <v>29</v>
+      </c>
+      <c r="B29" s="28"/>
       <c r="C29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E29" s="4">
-        <v>29.5</v>
+        <v>25.5</v>
       </c>
       <c r="F29" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G29" s="4">
         <v>25.5</v>
       </c>
       <c r="H29" s="4">
+        <v>2</v>
+      </c>
+      <c r="I29" s="4">
         <v>0</v>
-      </c>
-      <c r="I29" s="4">
-        <v>1</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="12">
+      <c r="L29" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3120,526 +3151,494 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E30" s="4">
-        <v>25.5</v>
-      </c>
-      <c r="F30" s="4">
+        <v>219</v>
+      </c>
+      <c r="E30" s="8">
+        <v>144</v>
+      </c>
+      <c r="F30" s="8">
+        <v>24</v>
+      </c>
+      <c r="G30" s="8">
+        <v>120</v>
+      </c>
+      <c r="H30" s="8">
         <v>0</v>
       </c>
-      <c r="G30" s="4">
-        <v>25.5</v>
-      </c>
-      <c r="H30" s="4">
-        <v>2</v>
-      </c>
-      <c r="I30" s="4">
+      <c r="I30" s="8">
+        <v>23</v>
+      </c>
+      <c r="J30" s="8">
+        <v>18</v>
+      </c>
+      <c r="K30" s="8">
+        <v>414</v>
+      </c>
+      <c r="L30" s="8">
         <v>0</v>
       </c>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M30" s="4">
-        <v>2</v>
-      </c>
-      <c r="N30" s="4">
-        <v>1</v>
+      <c r="M30" s="8">
+        <v>8</v>
+      </c>
+      <c r="N30" s="8">
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E31" s="9">
-        <v>144</v>
-      </c>
-      <c r="F31" s="9">
-        <v>24</v>
-      </c>
-      <c r="G31" s="9">
-        <v>120</v>
-      </c>
-      <c r="H31" s="9">
+        <v>31</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="E31" s="8">
+        <v>82</v>
+      </c>
+      <c r="F31" s="8">
+        <v>28</v>
+      </c>
+      <c r="G31" s="8">
+        <v>28</v>
+      </c>
+      <c r="H31" s="8">
+        <v>26</v>
+      </c>
+      <c r="I31" s="8">
+        <v>7</v>
+      </c>
+      <c r="J31" s="8">
+        <v>18</v>
+      </c>
+      <c r="K31" s="8">
+        <v>414</v>
+      </c>
+      <c r="L31" s="8">
         <v>0</v>
       </c>
-      <c r="I31" s="9">
-        <v>23</v>
-      </c>
-      <c r="J31" s="9">
-        <v>18</v>
-      </c>
-      <c r="K31" s="9">
-        <v>414</v>
-      </c>
-      <c r="L31" s="9">
-        <v>0</v>
-      </c>
-      <c r="M31" s="9">
+      <c r="M31" s="8">
         <v>8</v>
       </c>
-      <c r="N31" s="9">
-        <v>4</v>
+      <c r="N31" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>31</v>
-      </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E32" s="9">
-        <v>82</v>
-      </c>
-      <c r="F32" s="9">
-        <v>28</v>
-      </c>
-      <c r="G32" s="9">
-        <v>28</v>
-      </c>
-      <c r="H32" s="9">
+        <v>32</v>
+      </c>
+      <c r="B32" s="24"/>
+      <c r="C32" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="E32" s="8">
+        <v>42</v>
+      </c>
+      <c r="F32" s="8">
+        <v>16</v>
+      </c>
+      <c r="G32" s="8">
+        <v>0</v>
+      </c>
+      <c r="H32" s="8">
         <v>26</v>
       </c>
-      <c r="I32" s="9">
-        <v>7</v>
-      </c>
-      <c r="J32" s="9">
-        <v>18</v>
-      </c>
-      <c r="K32" s="9">
-        <v>414</v>
-      </c>
-      <c r="L32" s="9">
+      <c r="I32" s="8">
+        <v>2</v>
+      </c>
+      <c r="J32" s="8">
+        <v>22</v>
+      </c>
+      <c r="K32" s="8">
+        <v>300</v>
+      </c>
+      <c r="L32" s="8">
         <v>0</v>
       </c>
-      <c r="M32" s="9">
+      <c r="M32" s="8">
         <v>8</v>
       </c>
-      <c r="N32" s="9">
+      <c r="N32" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E33" s="9">
-        <v>42</v>
-      </c>
-      <c r="F33" s="9">
-        <v>16</v>
-      </c>
-      <c r="G33" s="9">
+        <v>33</v>
+      </c>
+      <c r="B33" s="24"/>
+      <c r="C33" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="E33" s="8">
+        <v>144</v>
+      </c>
+      <c r="F33" s="8">
+        <v>24</v>
+      </c>
+      <c r="G33" s="8">
+        <v>120</v>
+      </c>
+      <c r="H33" s="8">
         <v>0</v>
       </c>
-      <c r="H33" s="9">
-        <v>26</v>
-      </c>
-      <c r="I33" s="9">
-        <v>2</v>
-      </c>
-      <c r="J33" s="9">
-        <v>22</v>
-      </c>
-      <c r="K33" s="9">
-        <v>300</v>
-      </c>
-      <c r="L33" s="9">
+      <c r="I33" s="8">
+        <v>23</v>
+      </c>
+      <c r="J33" s="8">
+        <v>4</v>
+      </c>
+      <c r="K33" s="8">
+        <v>40</v>
+      </c>
+      <c r="L33" s="8">
         <v>0</v>
       </c>
-      <c r="M33" s="9">
-        <v>8</v>
-      </c>
-      <c r="N33" s="9">
+      <c r="M33" s="8">
+        <v>10</v>
+      </c>
+      <c r="N33" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" s="9">
-        <v>144</v>
-      </c>
-      <c r="F34" s="9">
-        <v>24</v>
-      </c>
-      <c r="G34" s="9">
-        <v>120</v>
-      </c>
-      <c r="H34" s="9">
+        <v>34</v>
+      </c>
+      <c r="B34" s="24"/>
+      <c r="C34" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="E34" s="8">
+        <v>82</v>
+      </c>
+      <c r="F34" s="8">
+        <v>28</v>
+      </c>
+      <c r="G34" s="8">
+        <v>28</v>
+      </c>
+      <c r="H34" s="8">
+        <v>26</v>
+      </c>
+      <c r="I34" s="8">
+        <v>7</v>
+      </c>
+      <c r="J34" s="8">
+        <v>2</v>
+      </c>
+      <c r="K34" s="8">
+        <v>40</v>
+      </c>
+      <c r="L34" s="8">
         <v>0</v>
       </c>
-      <c r="I34" s="9">
-        <v>23</v>
-      </c>
-      <c r="J34" s="9">
-        <v>4</v>
-      </c>
-      <c r="K34" s="9">
-        <v>40</v>
-      </c>
-      <c r="L34" s="9">
-        <v>0</v>
-      </c>
-      <c r="M34" s="9">
+      <c r="M34" s="8">
         <v>10</v>
       </c>
-      <c r="N34" s="9">
+      <c r="N34" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>34</v>
-      </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E35" s="9">
-        <v>82</v>
-      </c>
-      <c r="F35" s="9">
-        <v>28</v>
-      </c>
-      <c r="G35" s="9">
-        <v>28</v>
-      </c>
-      <c r="H35" s="9">
+        <v>35</v>
+      </c>
+      <c r="B35" s="24"/>
+      <c r="C35" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="E35" s="8">
+        <v>42</v>
+      </c>
+      <c r="F35" s="8">
+        <v>16</v>
+      </c>
+      <c r="G35" s="8">
+        <v>0</v>
+      </c>
+      <c r="H35" s="8">
         <v>26</v>
       </c>
-      <c r="I35" s="9">
-        <v>7</v>
-      </c>
-      <c r="J35" s="9">
-        <v>2</v>
-      </c>
-      <c r="K35" s="9">
-        <v>40</v>
-      </c>
-      <c r="L35" s="9">
+      <c r="I35" s="8">
+        <v>2</v>
+      </c>
+      <c r="J35" s="8">
+        <v>9</v>
+      </c>
+      <c r="K35" s="8">
+        <v>94</v>
+      </c>
+      <c r="L35" s="8">
         <v>0</v>
       </c>
-      <c r="M35" s="9">
+      <c r="M35" s="8">
         <v>10</v>
       </c>
-      <c r="N35" s="9">
+      <c r="N35" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>35</v>
-      </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E36" s="9">
-        <v>42</v>
-      </c>
-      <c r="F36" s="9">
-        <v>16</v>
-      </c>
-      <c r="G36" s="9">
+        <v>36</v>
+      </c>
+      <c r="B36" s="24"/>
+      <c r="C36" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="E36" s="8">
+        <v>144</v>
+      </c>
+      <c r="F36" s="8">
+        <v>24</v>
+      </c>
+      <c r="G36" s="8">
+        <v>120</v>
+      </c>
+      <c r="H36" s="8">
         <v>0</v>
       </c>
-      <c r="H36" s="9">
-        <v>26</v>
-      </c>
-      <c r="I36" s="9">
-        <v>2</v>
-      </c>
-      <c r="J36" s="9">
-        <v>9</v>
-      </c>
-      <c r="K36" s="9">
-        <v>94</v>
-      </c>
-      <c r="L36" s="9">
+      <c r="I36" s="8">
+        <v>23</v>
+      </c>
+      <c r="J36" s="8">
+        <v>1</v>
+      </c>
+      <c r="K36" s="8">
+        <v>15</v>
+      </c>
+      <c r="L36" s="8">
         <v>0</v>
       </c>
-      <c r="M36" s="9">
+      <c r="M36" s="8">
         <v>10</v>
       </c>
-      <c r="N36" s="9">
+      <c r="N36" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>36</v>
-      </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E37" s="9">
-        <v>144</v>
-      </c>
-      <c r="F37" s="9">
-        <v>24</v>
-      </c>
-      <c r="G37" s="9">
-        <v>120</v>
-      </c>
-      <c r="H37" s="9">
+        <v>37</v>
+      </c>
+      <c r="B37" s="24"/>
+      <c r="C37" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="E37" s="8">
+        <v>82</v>
+      </c>
+      <c r="F37" s="8">
+        <v>28</v>
+      </c>
+      <c r="G37" s="8">
+        <v>28</v>
+      </c>
+      <c r="H37" s="8">
+        <v>26</v>
+      </c>
+      <c r="I37" s="8">
+        <v>7</v>
+      </c>
+      <c r="J37" s="8">
+        <v>2</v>
+      </c>
+      <c r="K37" s="8">
+        <v>15</v>
+      </c>
+      <c r="L37" s="8">
         <v>0</v>
       </c>
-      <c r="I37" s="9">
-        <v>23</v>
-      </c>
-      <c r="J37" s="9">
-        <v>1</v>
-      </c>
-      <c r="K37" s="9">
-        <v>15</v>
-      </c>
-      <c r="L37" s="9">
-        <v>0</v>
-      </c>
-      <c r="M37" s="9">
+      <c r="M37" s="8">
         <v>10</v>
       </c>
-      <c r="N37" s="9">
+      <c r="N37" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>37</v>
-      </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E38" s="9">
-        <v>82</v>
-      </c>
-      <c r="F38" s="9">
-        <v>28</v>
-      </c>
-      <c r="G38" s="9">
-        <v>28</v>
-      </c>
-      <c r="H38" s="9">
+        <v>38</v>
+      </c>
+      <c r="B38" s="24"/>
+      <c r="C38" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="E38" s="8">
+        <v>42</v>
+      </c>
+      <c r="F38" s="8">
+        <v>16</v>
+      </c>
+      <c r="G38" s="8">
+        <v>0</v>
+      </c>
+      <c r="H38" s="8">
         <v>26</v>
       </c>
-      <c r="I38" s="9">
-        <v>7</v>
-      </c>
-      <c r="J38" s="9">
-        <v>2</v>
-      </c>
-      <c r="K38" s="9">
-        <v>15</v>
-      </c>
-      <c r="L38" s="9">
+      <c r="I38" s="8">
+        <v>2</v>
+      </c>
+      <c r="J38" s="8">
+        <v>6</v>
+      </c>
+      <c r="K38" s="8">
+        <v>86</v>
+      </c>
+      <c r="L38" s="8">
         <v>0</v>
       </c>
-      <c r="M38" s="9">
+      <c r="M38" s="8">
         <v>10</v>
       </c>
-      <c r="N38" s="9">
+      <c r="N38" s="8">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>38</v>
-      </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="9" t="s">
-        <v>213</v>
+        <v>39</v>
+      </c>
+      <c r="B39" s="24"/>
+      <c r="C39" s="8" t="s">
+        <v>203</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E39" s="9">
-        <v>42</v>
-      </c>
-      <c r="F39" s="9">
+        <v>71</v>
+      </c>
+      <c r="E39" s="8">
         <v>16</v>
       </c>
-      <c r="G39" s="9">
+      <c r="F39" s="8">
+        <v>8</v>
+      </c>
+      <c r="G39" s="8">
         <v>0</v>
       </c>
-      <c r="H39" s="9">
-        <v>26</v>
-      </c>
-      <c r="I39" s="9">
-        <v>2</v>
-      </c>
-      <c r="J39" s="9">
-        <v>6</v>
-      </c>
-      <c r="K39" s="9">
-        <v>86</v>
-      </c>
-      <c r="L39" s="9">
+      <c r="H39" s="8">
+        <v>8</v>
+      </c>
+      <c r="I39" s="8">
+        <v>1</v>
+      </c>
+      <c r="J39" s="8">
+        <v>25</v>
+      </c>
+      <c r="K39" s="8">
+        <v>472</v>
+      </c>
+      <c r="L39" s="8">
+        <f>J39*23-K39</f>
+        <v>103</v>
+      </c>
+      <c r="M39" s="8">
+        <v>2</v>
+      </c>
+      <c r="N39" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
+        <v>40</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="8">
+        <v>136</v>
+      </c>
+      <c r="F40" s="8">
+        <v>24</v>
+      </c>
+      <c r="G40" s="8">
+        <v>120</v>
+      </c>
+      <c r="H40" s="8">
         <v>0</v>
       </c>
-      <c r="M39" s="9">
-        <v>10</v>
-      </c>
-      <c r="N39" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>39</v>
-      </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E40" s="9">
-        <v>16</v>
-      </c>
-      <c r="F40" s="9">
-        <v>8</v>
-      </c>
-      <c r="G40" s="9">
+      <c r="I40" s="8">
+        <v>30</v>
+      </c>
+      <c r="J40" s="8">
+        <v>2</v>
+      </c>
+      <c r="K40" s="8">
+        <v>64</v>
+      </c>
+      <c r="L40" s="8">
         <v>0</v>
       </c>
-      <c r="H40" s="9">
-        <v>8</v>
-      </c>
-      <c r="I40" s="9">
+      <c r="M40" s="8">
+        <v>4</v>
+      </c>
+      <c r="N40" s="8">
         <v>1</v>
       </c>
-      <c r="J40" s="9">
-        <v>25</v>
-      </c>
-      <c r="K40" s="9">
-        <v>472</v>
-      </c>
-      <c r="L40" s="9">
-        <f>J40*23-K40</f>
-        <v>103</v>
-      </c>
-      <c r="M40" s="9">
-        <v>2</v>
-      </c>
-      <c r="N40" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="11">
-        <v>40</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E41" s="9">
-        <v>136</v>
-      </c>
-      <c r="F41" s="9">
-        <v>24</v>
-      </c>
-      <c r="G41" s="9">
-        <v>120</v>
-      </c>
-      <c r="H41" s="9">
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <f>B3</f>
         <v>0</v>
       </c>
-      <c r="I41" s="9">
-        <v>30</v>
-      </c>
-      <c r="J41" s="9">
-        <v>2</v>
-      </c>
-      <c r="K41" s="9">
-        <v>64</v>
-      </c>
-      <c r="L41" s="9">
-        <v>0</v>
-      </c>
-      <c r="M41" s="9">
-        <v>4</v>
-      </c>
-      <c r="N41" s="9">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:N1"/>
+  <autoFilter ref="C1:N1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="9">
-    <mergeCell ref="B31:B40"/>
+    <mergeCell ref="B30:B39"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B23:B30"/>
+    <mergeCell ref="B22:B29"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="B14:B15"/>
   </mergeCells>
-  <conditionalFormatting sqref="E16:K22 J2:K15 M2:N15">
+  <phoneticPr fontId="29" type="noConversion"/>
+  <conditionalFormatting sqref="E16:K21 J2:K15 M2:N15">
     <cfRule type="containsBlanks" dxfId="7" priority="13">
       <formula>LEN(TRIM(E2))=0</formula>
     </cfRule>
@@ -3654,11 +3653,6 @@
       <formula>LEN(TRIM(M18))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M22">
-    <cfRule type="containsBlanks" dxfId="4" priority="8">
-      <formula>LEN(TRIM(M22))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="N16:N17">
     <cfRule type="containsBlanks" dxfId="3" priority="6">
       <formula>LEN(TRIM(N16))=0</formula>
@@ -3669,14 +3663,9 @@
       <formula>LEN(TRIM(N18))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N22">
-    <cfRule type="containsBlanks" dxfId="1" priority="4">
-      <formula>LEN(TRIM(N22))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30:I30">
+  <conditionalFormatting sqref="E29:I29">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(E30))=0</formula>
+      <formula>LEN(TRIM(E29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3686,11 +3675,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3704,243 +3693,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
+        <v>105</v>
+      </c>
+      <c r="B2" s="14">
+        <v>18</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>106</v>
+      </c>
+      <c r="B3" s="14">
+        <v>20</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>107</v>
+      </c>
+      <c r="B4" s="14">
+        <v>24</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="14">
+        <v>24</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="14">
+        <v>32</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="14">
+        <v>18</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>422</v>
+      </c>
+      <c r="B8" s="14">
+        <v>18</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>3091</v>
+      </c>
+      <c r="B9" s="14">
+        <v>20</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="15">
-        <v>105</v>
-      </c>
-      <c r="B2" s="15">
+      <c r="D9" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="14">
+        <v>20</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="14">
+        <v>20</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="14">
         <v>18</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
-        <v>106</v>
-      </c>
-      <c r="B3" s="15">
-        <v>20</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
-        <v>107</v>
-      </c>
-      <c r="B4" s="15">
-        <v>24</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="15">
-        <v>24</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="15">
-        <v>32</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="15">
-        <v>18</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
-        <v>422</v>
-      </c>
-      <c r="B8" s="15">
-        <v>18</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
-        <v>3091</v>
-      </c>
-      <c r="B9" s="15">
-        <v>20</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="15">
-        <v>20</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="15">
-        <v>20</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="15">
-        <v>18</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>67</v>
+      <c r="D12" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3950,11 +3939,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3962,7 +3951,7 @@
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="54.28515625" customWidth="1"/>
     <col min="4" max="4" width="35.85546875" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" customWidth="1"/>
     <col min="6" max="6" width="39.7109375" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" customWidth="1"/>
     <col min="8" max="8" width="40" customWidth="1"/>
@@ -3970,913 +3959,913 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="18">
+        <v>2</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" s="18">
+        <v>1</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="18">
+        <v>1</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" s="18">
+        <v>2</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="18">
+        <v>3</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" s="18">
+        <v>2</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="E1" s="13" t="s">
+      <c r="F9" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="E15" s="18">
+        <v>2</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="E16" s="18">
+        <v>1</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="18">
+        <v>40</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="18">
+        <v>40</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="18">
+        <v>40</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="18">
+        <v>40</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="19" t="s">
+      <c r="E26" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="E2" s="19">
-        <v>2</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="19" t="s">
+      <c r="D32" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="E32" s="18">
+        <v>1</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="E3" s="19">
+      <c r="D33" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="E33" s="18">
+        <v>2</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="H33" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="E34" s="18">
         <v>1</v>
       </c>
-      <c r="F3" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="19" t="s">
+      <c r="F34" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="H34" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D35" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E35" s="18">
         <v>1</v>
       </c>
-      <c r="F4" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="E5" s="19">
-        <v>2</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="B6" s="19" t="s">
+      <c r="F35" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="E6" s="19">
-        <v>3</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="E7" s="19">
-        <v>2</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>176</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="E12" s="19" t="s">
+      <c r="G35" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="F12" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="E15" s="19">
-        <v>2</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="E16" s="19">
-        <v>1</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="H21" s="29" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="19">
-        <v>40</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="19">
-        <v>40</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="H23" s="26" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="19">
-        <v>40</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="H24" s="28" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="19">
-        <v>40</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G26" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H26" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G27" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H27" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G28" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H28" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="F29" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="G29" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H29" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="F30" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="G30" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H30" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="F31" s="27" t="s">
-        <v>186</v>
-      </c>
-      <c r="G31" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H31" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="E32" s="19">
-        <v>1</v>
-      </c>
-      <c r="F32" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G32" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H32" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="E33" s="19">
-        <v>2</v>
-      </c>
-      <c r="F33" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G33" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H33" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="E34" s="19">
-        <v>1</v>
-      </c>
-      <c r="F34" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H34" s="26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="E35" s="19">
-        <v>1</v>
-      </c>
-      <c r="F35" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G35" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H35" s="26" t="s">
-        <v>73</v>
+      <c r="H35" s="19" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/web-site/uploads/application2.xlsx
+++ b/web-site/uploads/application2.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B143618-1CB2-426D-B786-8F2064B6E5DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24030" yWindow="3855" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="параметры программ" sheetId="1" r:id="rId1"/>
@@ -15,17 +14,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'параметры программ'!$B$1:$N$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="J22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="J23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="L31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="227">
   <si>
     <t xml:space="preserve"> Программа повышения квалификации "Центровка и контроль загрузки воздушных судов. Базовый курс"</t>
   </si>
@@ -144,6 +143,9 @@
     <t>Программа повышения квалификации "Организация и контроль противообледенительной защиты воздушных судов (категория по SAE AS6286А DI-L30B)"</t>
   </si>
   <si>
+    <t>Программа повышения квалификации «Спасание и борьба с пожаром на воздушных судах и объектах аэропорта»</t>
+  </si>
+  <si>
     <t>Программа начальной подготовки водителей спецтранспорта без права подъезда к воздушному в контролируемой зоне аэродрома «Пулково»</t>
   </si>
   <si>
@@ -280,6 +282,9 @@
   </si>
   <si>
     <t>Может проводить занятия по темам</t>
+  </si>
+  <si>
+    <t>Водители; ПОЗ ВС</t>
   </si>
   <si>
     <t>Аварийно-спасательное обеспечение полетов</t>
@@ -357,10 +362,28 @@
     <t>с партами, интерактивная доска</t>
   </si>
   <si>
+    <t>требуется интерактивная доска</t>
+  </si>
+  <si>
+    <t>желательно все дни в одной и той же аудитории</t>
+  </si>
+  <si>
+    <t>желательно все дни в одной и той же аудитории, может проводиться совместно с программой №4</t>
+  </si>
+  <si>
     <t>кроме Подготовка преподавателей АУЦ</t>
   </si>
   <si>
     <t>на практические занятия необходима аудитория БАТО,213</t>
+  </si>
+  <si>
+    <t>желателен  414б</t>
+  </si>
+  <si>
+    <t>желателен 414б</t>
+  </si>
+  <si>
+    <t>необходима аудитория  без парт: 414б-1 или 416аб</t>
   </si>
   <si>
     <t>аудитория БАТО,213</t>
@@ -370,6 +393,9 @@
 Центровка и контроль загрузки</t>
   </si>
   <si>
+    <t>аудитория 105,106,107</t>
+  </si>
+  <si>
     <t>График работы</t>
   </si>
   <si>
@@ -594,6 +620,9 @@
     <t>сменный</t>
   </si>
   <si>
+    <t>пятидневный</t>
+  </si>
+  <si>
     <t>3 смена</t>
   </si>
   <si>
@@ -604,6 +633,9 @@
   </si>
   <si>
     <t>1/2 смена</t>
+  </si>
+  <si>
+    <t>индивидуальный</t>
   </si>
   <si>
     <t>Табельный номер преподавателя</t>
@@ -737,31 +769,13 @@
   <si>
     <t>может читать не более 2 дней подряд,
 затем необходим выходной</t>
-  </si>
-  <si>
-    <t>Водители; Противообледенительная защита ВС</t>
-  </si>
-  <si>
-    <t>интерактивная доска</t>
-  </si>
-  <si>
-    <t>стулья без парт</t>
-  </si>
-  <si>
-    <t>105, 106, 107</t>
-  </si>
-  <si>
-    <t>5/2</t>
-  </si>
-  <si>
-    <t>2/1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -987,12 +1001,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1391,7 +1399,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="22" fillId="0" borderId="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1407,6 +1415,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1437,15 +1448,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1464,7 +1466,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1485,7 +1492,7 @@
     <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Normal_Sheet1" xfId="44" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Normal_Sheet1" xfId="44"/>
     <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -1504,11 +1511,11 @@
     <cellStyle name="Название" xfId="2" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Нейтральный" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Обычный_Прей-т АВС пересмотр двуязыче" xfId="1" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Обычный 2" xfId="42"/>
+    <cellStyle name="Обычный_Прей-т АВС пересмотр двуязыче" xfId="1"/>
     <cellStyle name="Плохой" xfId="8" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Примечание 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Примечание 2" xfId="43"/>
     <cellStyle name="Связанная ячейка" xfId="13" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Текст предупреждения" xfId="15" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Хороший" xfId="7" builtinId="26" customBuiltin="1"/>
@@ -1659,23 +1666,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1711,23 +1701,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1903,12 +1876,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22:XFD22"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1923,70 +1896,70 @@
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="B1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="H1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>70</v>
+      <c r="B2" s="25" t="s">
+        <v>72</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>217</v>
+        <v>92</v>
       </c>
       <c r="E2" s="4">
         <v>80</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I2" s="4">
         <v>10</v>
@@ -2012,24 +1985,24 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>217</v>
+        <v>92</v>
       </c>
       <c r="E3" s="4">
         <v>64</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I3" s="4">
         <v>8</v>
@@ -2055,26 +2028,26 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>78</v>
+      <c r="B4" s="21" t="s">
+        <v>80</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="E4" s="4">
         <v>40</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I4" s="4">
         <v>5</v>
@@ -2100,24 +2073,24 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="E5" s="4">
         <v>40</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I5" s="4">
         <v>5</v>
@@ -2143,26 +2116,26 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>74</v>
+      <c r="B6" s="25" t="s">
+        <v>76</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>218</v>
+        <v>99</v>
       </c>
       <c r="E6" s="4">
         <v>24</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I6" s="4">
         <v>3</v>
@@ -2188,24 +2161,24 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>218</v>
+        <v>99</v>
       </c>
       <c r="E7" s="4">
         <v>16</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I7" s="4">
         <v>2</v>
@@ -2231,26 +2204,26 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>34</v>
+      <c r="B8" s="25" t="s">
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E8" s="4">
         <v>24</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I8" s="4">
         <v>3</v>
@@ -2276,24 +2249,24 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E9" s="4">
         <v>16</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I9" s="4">
         <v>2</v>
@@ -2319,24 +2292,24 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="27"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E10" s="4">
         <v>16</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I10" s="4">
         <v>2</v>
@@ -2362,21 +2335,21 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="27"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E11" s="4">
         <v>16</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H11" s="4">
         <v>8</v>
@@ -2405,21 +2378,21 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="27"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E12" s="4">
         <v>24</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H12" s="4">
         <v>8</v>
@@ -2448,21 +2421,21 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="28"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E13" s="4">
         <v>16</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H13" s="4">
         <v>8</v>
@@ -2491,26 +2464,26 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>77</v>
+      <c r="B14" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E14" s="4">
         <v>16</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I14" s="4">
         <v>2</v>
@@ -2536,24 +2509,24 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="28"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E15" s="4">
         <v>32</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I15" s="4">
         <v>4</v>
@@ -2579,14 +2552,14 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>72</v>
+      <c r="B16" s="21" t="s">
+        <v>74</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="E16" s="4">
         <v>72</v>
@@ -2616,7 +2589,7 @@
       <c r="M16" s="4">
         <v>4</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="7">
         <v>7</v>
       </c>
     </row>
@@ -2624,12 +2597,12 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="26"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="E17" s="4">
         <v>32</v>
@@ -2667,14 +2640,14 @@
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="25" t="s">
-        <v>76</v>
+      <c r="B18" s="21" t="s">
+        <v>78</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E18" s="4">
         <v>16</v>
@@ -2712,12 +2685,12 @@
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="27"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E19" s="4">
         <v>16</v>
@@ -2741,7 +2714,7 @@
         <v>54</v>
       </c>
       <c r="L19" s="4">
-        <f t="shared" ref="L19:L29" si="1">J19*15-K19</f>
+        <f t="shared" ref="L19:L30" si="1">J19*15-K19</f>
         <v>21</v>
       </c>
       <c r="M19" s="4">
@@ -2755,12 +2728,12 @@
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="27"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E20" s="4">
         <v>16</v>
@@ -2794,16 +2767,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="28"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E21" s="4">
         <v>16</v>
@@ -2837,310 +2810,306 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>22</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>36</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B22" s="6"/>
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="D22" s="1"/>
       <c r="E22" s="4">
-        <v>33</v>
-      </c>
-      <c r="F22" s="5">
-        <v>7</v>
-      </c>
-      <c r="G22" s="4">
-        <v>24</v>
-      </c>
-      <c r="H22" s="4">
+        <v>36</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4">
+        <v>3</v>
+      </c>
+      <c r="J22" s="4">
         <v>0</v>
       </c>
-      <c r="I22" s="4">
-        <v>1</v>
-      </c>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="11">
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+      <c r="L22" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M22" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N22" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>23</v>
-      </c>
-      <c r="B23" s="27"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>37</v>
+      </c>
       <c r="C23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" s="6">
-        <v>27</v>
-      </c>
-      <c r="F23" s="6">
+        <v>100</v>
+      </c>
+      <c r="E23" s="4">
+        <v>33</v>
+      </c>
+      <c r="F23" s="5">
+        <v>7</v>
+      </c>
+      <c r="G23" s="4">
+        <v>24</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
         <v>1</v>
       </c>
-      <c r="G23" s="6">
-        <v>24</v>
-      </c>
-      <c r="H23" s="6">
-        <v>2</v>
-      </c>
-      <c r="I23" s="6">
-        <v>1</v>
-      </c>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="11">
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M23" s="6">
-        <v>2</v>
-      </c>
-      <c r="N23" s="6">
+      <c r="M23" s="4">
+        <v>2</v>
+      </c>
+      <c r="N23" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>24</v>
-      </c>
-      <c r="B24" s="27"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="23"/>
       <c r="C24" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E24" s="4">
-        <v>74</v>
-      </c>
-      <c r="F24" s="5">
-        <v>8</v>
-      </c>
-      <c r="G24" s="4">
-        <v>64</v>
-      </c>
-      <c r="H24" s="4">
-        <v>0</v>
-      </c>
-      <c r="I24" s="4">
-        <v>2</v>
-      </c>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="11">
+        <v>100</v>
+      </c>
+      <c r="E24" s="7">
+        <v>27</v>
+      </c>
+      <c r="F24" s="7">
+        <v>1</v>
+      </c>
+      <c r="G24" s="7">
+        <v>24</v>
+      </c>
+      <c r="H24" s="7">
+        <v>2</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1</v>
+      </c>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M24" s="4">
-        <v>2</v>
-      </c>
-      <c r="N24" s="4">
+      <c r="M24" s="7">
+        <v>2</v>
+      </c>
+      <c r="N24" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>25</v>
-      </c>
-      <c r="B25" s="27"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="23"/>
       <c r="C25" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E25" s="6">
-        <v>67</v>
-      </c>
-      <c r="F25" s="6">
-        <v>1</v>
-      </c>
-      <c r="G25" s="6">
+        <v>100</v>
+      </c>
+      <c r="E25" s="4">
+        <v>74</v>
+      </c>
+      <c r="F25" s="5">
+        <v>8</v>
+      </c>
+      <c r="G25" s="4">
         <v>64</v>
       </c>
-      <c r="H25" s="6">
-        <v>2</v>
-      </c>
-      <c r="I25" s="6">
-        <v>1</v>
-      </c>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="11">
+      <c r="H25" s="4">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>2</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M25" s="6">
-        <v>2</v>
-      </c>
-      <c r="N25" s="6">
+      <c r="M25" s="4">
+        <v>2</v>
+      </c>
+      <c r="N25" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>26</v>
-      </c>
-      <c r="B26" s="27"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="23"/>
       <c r="C26" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="4">
-        <v>74</v>
-      </c>
-      <c r="F26" s="5">
-        <v>8</v>
-      </c>
-      <c r="G26" s="4">
+        <v>100</v>
+      </c>
+      <c r="E26" s="7">
+        <v>67</v>
+      </c>
+      <c r="F26" s="7">
+        <v>1</v>
+      </c>
+      <c r="G26" s="7">
         <v>64</v>
       </c>
-      <c r="H26" s="4">
-        <v>0</v>
-      </c>
-      <c r="I26" s="4">
-        <v>2</v>
-      </c>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="11">
+      <c r="H26" s="7">
+        <v>2</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1</v>
+      </c>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M26" s="4">
-        <v>2</v>
-      </c>
-      <c r="N26" s="4">
+      <c r="M26" s="7">
+        <v>2</v>
+      </c>
+      <c r="N26" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="7" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>27</v>
-      </c>
-      <c r="B27" s="27"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="23"/>
       <c r="C27" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" s="6">
-        <v>67</v>
-      </c>
-      <c r="F27" s="6">
-        <v>1</v>
-      </c>
-      <c r="G27" s="6">
+        <v>100</v>
+      </c>
+      <c r="E27" s="4">
+        <v>74</v>
+      </c>
+      <c r="F27" s="5">
+        <v>8</v>
+      </c>
+      <c r="G27" s="4">
         <v>64</v>
       </c>
-      <c r="H27" s="6">
-        <v>2</v>
-      </c>
-      <c r="I27" s="6">
-        <v>1</v>
-      </c>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="11">
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="4">
+        <v>2</v>
+      </c>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M27" s="6">
-        <v>2</v>
-      </c>
-      <c r="N27" s="6">
+      <c r="M27" s="4">
+        <v>2</v>
+      </c>
+      <c r="N27" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" s="8" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>28</v>
-      </c>
-      <c r="B28" s="27"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="23"/>
       <c r="C28" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E28" s="4">
-        <v>29.5</v>
-      </c>
-      <c r="F28" s="4">
-        <v>4</v>
-      </c>
-      <c r="G28" s="4">
-        <v>25.5</v>
-      </c>
-      <c r="H28" s="4">
-        <v>0</v>
-      </c>
-      <c r="I28" s="4">
+        <v>100</v>
+      </c>
+      <c r="E28" s="7">
+        <v>67</v>
+      </c>
+      <c r="F28" s="7">
         <v>1</v>
       </c>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="11">
+      <c r="G28" s="7">
+        <v>64</v>
+      </c>
+      <c r="H28" s="7">
+        <v>2</v>
+      </c>
+      <c r="I28" s="7">
+        <v>1</v>
+      </c>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M28" s="4">
-        <v>2</v>
-      </c>
-      <c r="N28" s="4">
+      <c r="M28" s="7">
+        <v>2</v>
+      </c>
+      <c r="N28" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>29</v>
-      </c>
-      <c r="B29" s="28"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="23"/>
       <c r="C29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E29" s="4">
-        <v>25.5</v>
+        <v>29.5</v>
       </c>
       <c r="F29" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G29" s="4">
         <v>25.5</v>
       </c>
       <c r="H29" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="11">
+      <c r="L29" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3151,494 +3120,526 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>30</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>194</v>
+        <v>29</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E30" s="8">
-        <v>144</v>
-      </c>
-      <c r="F30" s="8">
-        <v>24</v>
-      </c>
-      <c r="G30" s="8">
-        <v>120</v>
-      </c>
-      <c r="H30" s="8">
+        <v>100</v>
+      </c>
+      <c r="E30" s="4">
+        <v>25.5</v>
+      </c>
+      <c r="F30" s="4">
         <v>0</v>
       </c>
-      <c r="I30" s="8">
-        <v>23</v>
-      </c>
-      <c r="J30" s="8">
-        <v>18</v>
-      </c>
-      <c r="K30" s="8">
-        <v>414</v>
-      </c>
-      <c r="L30" s="8">
+      <c r="G30" s="4">
+        <v>25.5</v>
+      </c>
+      <c r="H30" s="4">
+        <v>2</v>
+      </c>
+      <c r="I30" s="4">
         <v>0</v>
       </c>
-      <c r="M30" s="8">
-        <v>8</v>
-      </c>
-      <c r="N30" s="8">
-        <v>4</v>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="4">
+        <v>2</v>
+      </c>
+      <c r="N30" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>31</v>
-      </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="E31" s="8">
-        <v>82</v>
-      </c>
-      <c r="F31" s="8">
-        <v>28</v>
-      </c>
-      <c r="G31" s="8">
-        <v>28</v>
-      </c>
-      <c r="H31" s="8">
-        <v>26</v>
-      </c>
-      <c r="I31" s="8">
-        <v>7</v>
-      </c>
-      <c r="J31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" s="9">
+        <v>144</v>
+      </c>
+      <c r="F31" s="9">
+        <v>24</v>
+      </c>
+      <c r="G31" s="9">
+        <v>120</v>
+      </c>
+      <c r="H31" s="9">
+        <v>0</v>
+      </c>
+      <c r="I31" s="9">
+        <v>23</v>
+      </c>
+      <c r="J31" s="9">
         <v>18</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K31" s="9">
         <v>414</v>
       </c>
-      <c r="L31" s="8">
+      <c r="L31" s="9">
         <v>0</v>
       </c>
-      <c r="M31" s="8">
+      <c r="M31" s="9">
         <v>8</v>
       </c>
-      <c r="N31" s="8">
-        <v>3</v>
+      <c r="N31" s="9">
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>32</v>
-      </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="E32" s="8">
-        <v>42</v>
-      </c>
-      <c r="F32" s="8">
-        <v>16</v>
-      </c>
-      <c r="G32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="9">
+        <v>82</v>
+      </c>
+      <c r="F32" s="9">
+        <v>28</v>
+      </c>
+      <c r="G32" s="9">
+        <v>28</v>
+      </c>
+      <c r="H32" s="9">
+        <v>26</v>
+      </c>
+      <c r="I32" s="9">
+        <v>7</v>
+      </c>
+      <c r="J32" s="9">
+        <v>18</v>
+      </c>
+      <c r="K32" s="9">
+        <v>414</v>
+      </c>
+      <c r="L32" s="9">
         <v>0</v>
       </c>
-      <c r="H32" s="8">
-        <v>26</v>
-      </c>
-      <c r="I32" s="8">
-        <v>2</v>
-      </c>
-      <c r="J32" s="8">
-        <v>22</v>
-      </c>
-      <c r="K32" s="8">
-        <v>300</v>
-      </c>
-      <c r="L32" s="8">
-        <v>0</v>
-      </c>
-      <c r="M32" s="8">
+      <c r="M32" s="9">
         <v>8</v>
       </c>
-      <c r="N32" s="8">
+      <c r="N32" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>33</v>
-      </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="E33" s="8">
-        <v>144</v>
-      </c>
-      <c r="F33" s="8">
-        <v>24</v>
-      </c>
-      <c r="G33" s="8">
-        <v>120</v>
-      </c>
-      <c r="H33" s="8">
+        <v>32</v>
+      </c>
+      <c r="B33" s="20"/>
+      <c r="C33" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" s="9">
+        <v>42</v>
+      </c>
+      <c r="F33" s="9">
+        <v>16</v>
+      </c>
+      <c r="G33" s="9">
         <v>0</v>
       </c>
-      <c r="I33" s="8">
-        <v>23</v>
-      </c>
-      <c r="J33" s="8">
-        <v>4</v>
-      </c>
-      <c r="K33" s="8">
-        <v>40</v>
-      </c>
-      <c r="L33" s="8">
+      <c r="H33" s="9">
+        <v>26</v>
+      </c>
+      <c r="I33" s="9">
+        <v>2</v>
+      </c>
+      <c r="J33" s="9">
+        <v>22</v>
+      </c>
+      <c r="K33" s="9">
+        <v>300</v>
+      </c>
+      <c r="L33" s="9">
         <v>0</v>
       </c>
-      <c r="M33" s="8">
-        <v>10</v>
-      </c>
-      <c r="N33" s="8">
+      <c r="M33" s="9">
+        <v>8</v>
+      </c>
+      <c r="N33" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>34</v>
-      </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="E34" s="8">
-        <v>82</v>
-      </c>
-      <c r="F34" s="8">
-        <v>28</v>
-      </c>
-      <c r="G34" s="8">
-        <v>28</v>
-      </c>
-      <c r="H34" s="8">
-        <v>26</v>
-      </c>
-      <c r="I34" s="8">
-        <v>7</v>
-      </c>
-      <c r="J34" s="8">
-        <v>2</v>
-      </c>
-      <c r="K34" s="8">
+        <v>33</v>
+      </c>
+      <c r="B34" s="20"/>
+      <c r="C34" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="9">
+        <v>144</v>
+      </c>
+      <c r="F34" s="9">
+        <v>24</v>
+      </c>
+      <c r="G34" s="9">
+        <v>120</v>
+      </c>
+      <c r="H34" s="9">
+        <v>0</v>
+      </c>
+      <c r="I34" s="9">
+        <v>23</v>
+      </c>
+      <c r="J34" s="9">
+        <v>4</v>
+      </c>
+      <c r="K34" s="9">
         <v>40</v>
       </c>
-      <c r="L34" s="8">
+      <c r="L34" s="9">
         <v>0</v>
       </c>
-      <c r="M34" s="8">
+      <c r="M34" s="9">
         <v>10</v>
       </c>
-      <c r="N34" s="8">
+      <c r="N34" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>35</v>
-      </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="E35" s="8">
-        <v>42</v>
-      </c>
-      <c r="F35" s="8">
-        <v>16</v>
-      </c>
-      <c r="G35" s="8">
+        <v>34</v>
+      </c>
+      <c r="B35" s="20"/>
+      <c r="C35" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="9">
+        <v>82</v>
+      </c>
+      <c r="F35" s="9">
+        <v>28</v>
+      </c>
+      <c r="G35" s="9">
+        <v>28</v>
+      </c>
+      <c r="H35" s="9">
+        <v>26</v>
+      </c>
+      <c r="I35" s="9">
+        <v>7</v>
+      </c>
+      <c r="J35" s="9">
+        <v>2</v>
+      </c>
+      <c r="K35" s="9">
+        <v>40</v>
+      </c>
+      <c r="L35" s="9">
         <v>0</v>
       </c>
-      <c r="H35" s="8">
-        <v>26</v>
-      </c>
-      <c r="I35" s="8">
-        <v>2</v>
-      </c>
-      <c r="J35" s="8">
-        <v>9</v>
-      </c>
-      <c r="K35" s="8">
-        <v>94</v>
-      </c>
-      <c r="L35" s="8">
-        <v>0</v>
-      </c>
-      <c r="M35" s="8">
+      <c r="M35" s="9">
         <v>10</v>
       </c>
-      <c r="N35" s="8">
+      <c r="N35" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>36</v>
-      </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="E36" s="8">
-        <v>144</v>
-      </c>
-      <c r="F36" s="8">
-        <v>24</v>
-      </c>
-      <c r="G36" s="8">
-        <v>120</v>
-      </c>
-      <c r="H36" s="8">
+        <v>35</v>
+      </c>
+      <c r="B36" s="20"/>
+      <c r="C36" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="9">
+        <v>42</v>
+      </c>
+      <c r="F36" s="9">
+        <v>16</v>
+      </c>
+      <c r="G36" s="9">
         <v>0</v>
       </c>
-      <c r="I36" s="8">
-        <v>23</v>
-      </c>
-      <c r="J36" s="8">
-        <v>1</v>
-      </c>
-      <c r="K36" s="8">
-        <v>15</v>
-      </c>
-      <c r="L36" s="8">
+      <c r="H36" s="9">
+        <v>26</v>
+      </c>
+      <c r="I36" s="9">
+        <v>2</v>
+      </c>
+      <c r="J36" s="9">
+        <v>9</v>
+      </c>
+      <c r="K36" s="9">
+        <v>94</v>
+      </c>
+      <c r="L36" s="9">
         <v>0</v>
       </c>
-      <c r="M36" s="8">
+      <c r="M36" s="9">
         <v>10</v>
       </c>
-      <c r="N36" s="8">
+      <c r="N36" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>37</v>
-      </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="E37" s="8">
-        <v>82</v>
-      </c>
-      <c r="F37" s="8">
-        <v>28</v>
-      </c>
-      <c r="G37" s="8">
-        <v>28</v>
-      </c>
-      <c r="H37" s="8">
-        <v>26</v>
-      </c>
-      <c r="I37" s="8">
-        <v>7</v>
-      </c>
-      <c r="J37" s="8">
-        <v>2</v>
-      </c>
-      <c r="K37" s="8">
+        <v>36</v>
+      </c>
+      <c r="B37" s="20"/>
+      <c r="C37" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="9">
+        <v>144</v>
+      </c>
+      <c r="F37" s="9">
+        <v>24</v>
+      </c>
+      <c r="G37" s="9">
+        <v>120</v>
+      </c>
+      <c r="H37" s="9">
+        <v>0</v>
+      </c>
+      <c r="I37" s="9">
+        <v>23</v>
+      </c>
+      <c r="J37" s="9">
+        <v>1</v>
+      </c>
+      <c r="K37" s="9">
         <v>15</v>
       </c>
-      <c r="L37" s="8">
+      <c r="L37" s="9">
         <v>0</v>
       </c>
-      <c r="M37" s="8">
+      <c r="M37" s="9">
         <v>10</v>
       </c>
-      <c r="N37" s="8">
+      <c r="N37" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>38</v>
-      </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>219</v>
-      </c>
-      <c r="E38" s="8">
-        <v>42</v>
-      </c>
-      <c r="F38" s="8">
-        <v>16</v>
-      </c>
-      <c r="G38" s="8">
+        <v>37</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" s="9">
+        <v>82</v>
+      </c>
+      <c r="F38" s="9">
+        <v>28</v>
+      </c>
+      <c r="G38" s="9">
+        <v>28</v>
+      </c>
+      <c r="H38" s="9">
+        <v>26</v>
+      </c>
+      <c r="I38" s="9">
+        <v>7</v>
+      </c>
+      <c r="J38" s="9">
+        <v>2</v>
+      </c>
+      <c r="K38" s="9">
+        <v>15</v>
+      </c>
+      <c r="L38" s="9">
         <v>0</v>
       </c>
-      <c r="H38" s="8">
-        <v>26</v>
-      </c>
-      <c r="I38" s="8">
-        <v>2</v>
-      </c>
-      <c r="J38" s="8">
-        <v>6</v>
-      </c>
-      <c r="K38" s="8">
-        <v>86</v>
-      </c>
-      <c r="L38" s="8">
-        <v>0</v>
-      </c>
-      <c r="M38" s="8">
+      <c r="M38" s="9">
         <v>10</v>
       </c>
-      <c r="N38" s="8">
+      <c r="N38" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="20"/>
+      <c r="C39" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" s="9">
+        <v>42</v>
+      </c>
+      <c r="F39" s="9">
+        <v>16</v>
+      </c>
+      <c r="G39" s="9">
+        <v>0</v>
+      </c>
+      <c r="H39" s="9">
+        <v>26</v>
+      </c>
+      <c r="I39" s="9">
+        <v>2</v>
+      </c>
+      <c r="J39" s="9">
+        <v>6</v>
+      </c>
+      <c r="K39" s="9">
+        <v>86</v>
+      </c>
+      <c r="L39" s="9">
+        <v>0</v>
+      </c>
+      <c r="M39" s="9">
+        <v>10</v>
+      </c>
+      <c r="N39" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E39" s="8">
+      <c r="B40" s="20"/>
+      <c r="C40" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="9">
         <v>16</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F40" s="9">
         <v>8</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G40" s="9">
         <v>0</v>
       </c>
-      <c r="H39" s="8">
+      <c r="H40" s="9">
         <v>8</v>
       </c>
-      <c r="I39" s="8">
+      <c r="I40" s="9">
         <v>1</v>
       </c>
-      <c r="J39" s="8">
+      <c r="J40" s="9">
         <v>25</v>
       </c>
-      <c r="K39" s="8">
+      <c r="K40" s="9">
         <v>472</v>
       </c>
-      <c r="L39" s="8">
-        <f>J39*23-K39</f>
+      <c r="L40" s="9">
+        <f>J40*23-K40</f>
         <v>103</v>
       </c>
-      <c r="M39" s="8">
-        <v>2</v>
-      </c>
-      <c r="N39" s="8">
+      <c r="M40" s="9">
+        <v>2</v>
+      </c>
+      <c r="N40" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="10">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
         <v>40</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E40" s="8">
+      <c r="B41" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="9">
         <v>136</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F41" s="9">
         <v>24</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G41" s="9">
         <v>120</v>
       </c>
-      <c r="H40" s="8">
+      <c r="H41" s="9">
         <v>0</v>
       </c>
-      <c r="I40" s="8">
+      <c r="I41" s="9">
         <v>30</v>
       </c>
-      <c r="J40" s="8">
-        <v>2</v>
-      </c>
-      <c r="K40" s="8">
+      <c r="J41" s="9">
+        <v>2</v>
+      </c>
+      <c r="K41" s="9">
         <v>64</v>
       </c>
-      <c r="L40" s="8">
+      <c r="L41" s="9">
         <v>0</v>
       </c>
-      <c r="M40" s="8">
+      <c r="M41" s="9">
         <v>4</v>
       </c>
-      <c r="N40" s="8">
+      <c r="N41" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <f>B3</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="C1:N1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="C1:N1"/>
   <mergeCells count="9">
-    <mergeCell ref="B30:B39"/>
+    <mergeCell ref="B31:B40"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="B23:B30"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="B14:B15"/>
   </mergeCells>
-  <phoneticPr fontId="29" type="noConversion"/>
-  <conditionalFormatting sqref="E16:K21 J2:K15 M2:N15">
+  <conditionalFormatting sqref="E16:K22 J2:K15 M2:N15">
     <cfRule type="containsBlanks" dxfId="7" priority="13">
       <formula>LEN(TRIM(E2))=0</formula>
     </cfRule>
@@ -3653,6 +3654,11 @@
       <formula>LEN(TRIM(M18))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M22">
+    <cfRule type="containsBlanks" dxfId="4" priority="8">
+      <formula>LEN(TRIM(M22))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N16:N17">
     <cfRule type="containsBlanks" dxfId="3" priority="6">
       <formula>LEN(TRIM(N16))=0</formula>
@@ -3663,9 +3669,14 @@
       <formula>LEN(TRIM(N18))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29:I29">
+  <conditionalFormatting sqref="N22">
+    <cfRule type="containsBlanks" dxfId="1" priority="4">
+      <formula>LEN(TRIM(N22))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:I30">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(E29))=0</formula>
+      <formula>LEN(TRIM(E30))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3675,11 +3686,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3693,243 +3704,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>105</v>
+      </c>
+      <c r="B2" s="15">
+        <v>18</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>106</v>
+      </c>
+      <c r="B3" s="15">
+        <v>20</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>107</v>
+      </c>
+      <c r="B4" s="15">
+        <v>24</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="15">
+        <v>24</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="15">
+        <v>32</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="15">
+        <v>18</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>422</v>
+      </c>
+      <c r="B8" s="15">
+        <v>18</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>3091</v>
+      </c>
+      <c r="B9" s="15">
+        <v>20</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="15">
+        <v>20</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="15">
+        <v>20</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
-        <v>105</v>
-      </c>
-      <c r="B2" s="14">
+      <c r="B12" s="15">
         <v>18</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="15" t="s">
+      <c r="C12" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>67</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
-        <v>106</v>
-      </c>
-      <c r="B3" s="14">
-        <v>20</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
-        <v>107</v>
-      </c>
-      <c r="B4" s="14">
-        <v>24</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="14">
-        <v>24</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="14">
-        <v>32</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="14">
-        <v>18</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
-        <v>422</v>
-      </c>
-      <c r="B8" s="14">
-        <v>18</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
-        <v>3091</v>
-      </c>
-      <c r="B9" s="14">
-        <v>20</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="14">
-        <v>20</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="14">
-        <v>20</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="14">
-        <v>18</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -3939,11 +3950,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3951,7 +3962,7 @@
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="54.28515625" customWidth="1"/>
     <col min="4" max="4" width="35.85546875" customWidth="1"/>
-    <col min="5" max="5" width="41.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1"/>
     <col min="6" max="6" width="39.7109375" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" customWidth="1"/>
     <col min="8" max="8" width="40" customWidth="1"/>
@@ -3959,913 +3970,913 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="19">
+        <v>2</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" s="19">
+        <v>1</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="19">
+        <v>1</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" s="19">
+        <v>2</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" s="19">
+        <v>3</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="19">
+        <v>2</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="C11" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="E15" s="19">
+        <v>2</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="E16" s="19">
+        <v>1</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="B21" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="19">
+        <v>40</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="19">
+        <v>40</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="E2" s="18">
-        <v>2</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="H23" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="19">
+        <v>40</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="H24" s="28" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="19">
+        <v>40</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="C27" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="E3" s="18">
+      <c r="B28" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F28" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="H28" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="H30" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="E32" s="19">
         <v>1</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="18" t="s">
+      <c r="F32" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="H32" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="E4" s="18">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="E33" s="19">
+        <v>2</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="E34" s="19">
         <v>1</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" s="18" t="s">
+      <c r="F34" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="H34" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="E5" s="18">
-        <v>2</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="18" t="s">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="E35" s="19">
+        <v>1</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="H35" s="26" t="s">
         <v>73</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="E6" s="18">
-        <v>3</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="E7" s="18">
-        <v>2</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="G14" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="E15" s="18">
-        <v>2</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="G15" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="E16" s="18">
-        <v>1</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="G16" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="G18" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="18">
-        <v>40</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="18">
-        <v>40</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="G23" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="18">
-        <v>40</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="G24" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="18">
-        <v>40</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="G25" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="G26" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="G27" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="H27" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="G28" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="G30" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="G31" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="H31" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="E32" s="18">
-        <v>1</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="G32" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="H32" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="E33" s="18">
-        <v>2</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="G33" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="H33" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="E34" s="18">
-        <v>1</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="G34" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="H34" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="E35" s="18">
-        <v>1</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="G35" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="H35" s="19" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
